--- a/Lab1FX/Виженер.xlsx
+++ b/Lab1FX/Виженер.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="62">
   <si>
     <t>А</t>
   </si>
@@ -163,6 +163,48 @@
   </si>
   <si>
     <t>I</t>
+  </si>
+  <si>
+    <t>-plaintext</t>
+  </si>
+  <si>
+    <t>-key</t>
+  </si>
+  <si>
+    <t>-cyphertext</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>I/J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Z</t>
   </si>
 </sst>
 </file>
@@ -194,6 +236,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,16 +253,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -451,32 +494,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -757,15 +805,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ20"/>
+  <dimension ref="A1:AJ35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>40</v>
       </c>
@@ -784,7 +832,7 @@
       <c r="F1">
         <v>45</v>
       </c>
-      <c r="G1" s="19">
+      <c r="G1" s="25">
         <v>46</v>
       </c>
       <c r="H1">
@@ -869,7 +917,7 @@
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
     </row>
-    <row r="2" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -888,7 +936,7 @@
       <c r="F2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="26" t="s">
         <v>6</v>
       </c>
       <c r="H2" s="9" t="s">
@@ -970,7 +1018,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>11</v>
       </c>
@@ -989,7 +1037,7 @@
       <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="27" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="6" t="s">
@@ -1071,7 +1119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>12</v>
       </c>
@@ -1090,7 +1138,7 @@
       <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="G4" s="28" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -1172,7 +1220,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>0</v>
       </c>
@@ -1191,7 +1239,7 @@
       <c r="F5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="28" t="s">
         <v>6</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -1273,7 +1321,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>17</v>
       </c>
@@ -1292,7 +1340,7 @@
       <c r="F6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="28" t="s">
         <v>23</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -1374,7 +1422,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
@@ -1393,7 +1441,7 @@
       <c r="F7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="28" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -1475,7 +1523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>5</v>
       </c>
@@ -1494,7 +1542,7 @@
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="28" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -1576,7 +1624,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="16" t="s">
         <v>19</v>
       </c>
@@ -1595,7 +1643,7 @@
       <c r="F9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="23" t="s">
+      <c r="G9" s="29" t="s">
         <v>25</v>
       </c>
       <c r="H9" s="4" t="s">
@@ -1677,7 +1725,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -1712,7 +1760,7 @@
       <c r="AF10"/>
       <c r="AG10"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -1779,7 +1827,9 @@
       <c r="V11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="W11" s="1"/>
+      <c r="W11" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
@@ -1791,7 +1841,7 @@
       <c r="AF11" s="1"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1858,8 +1908,11 @@
       <c r="V12" s="17" t="s">
         <v>14</v>
       </c>
+      <c r="W12" s="22" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1881,190 +1934,467 @@
       <c r="G13" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="19" t="s">
         <v>29</v>
       </c>
+      <c r="K13" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="L13" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="P13" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="R13" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="S13" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="U13" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="V13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" s="21" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G15" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="M15" t="s">
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="S15" t="s">
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="T19" s="23"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="23"/>
+      <c r="X19" s="23"/>
+      <c r="Y19" s="23" t="s">
         <v>47</v>
       </c>
+      <c r="Z19" s="23"/>
+      <c r="AA19" s="23"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="F16" t="s">
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H16" t="s">
+      <c r="G20" s="23"/>
+      <c r="H20" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="L16" t="s">
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="N16" t="s">
+      <c r="M20" s="23"/>
+      <c r="N20" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="R16" t="s">
+      <c r="O20" s="23"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="T16" t="s">
+      <c r="S20" s="23"/>
+      <c r="T20" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="X16" t="s">
+      <c r="U20" s="23"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y20" s="23"/>
+      <c r="Z20" s="23" t="s">
         <v>37</v>
       </c>
+      <c r="AA20" s="23"/>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E17" t="s">
+      <c r="D21" s="23"/>
+      <c r="E21" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I17" t="s">
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="K17" t="s">
+      <c r="J21" s="23"/>
+      <c r="K21" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="O17" t="s">
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="Q17" t="s">
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="U17" t="s">
+      <c r="R21" s="23"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="W17" t="s">
+      <c r="V21" s="23"/>
+      <c r="W21" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="D18" t="s">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="J18" t="s">
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="P18" t="s">
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="V18" t="s">
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="23" t="s">
         <v>33</v>
       </c>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>33</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B24" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C24" t="s">
         <v>40</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D24" t="s">
         <v>40</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E24" t="s">
         <v>47</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F24" t="s">
         <v>34</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G24" t="s">
         <v>38</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H24" t="s">
         <v>34</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I24" t="s">
         <v>35</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J24" t="s">
         <v>42</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K24" t="s">
         <v>37</v>
       </c>
-      <c r="L20" t="s">
+      <c r="L24" t="s">
         <v>44</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M24" t="s">
         <v>34</v>
       </c>
-      <c r="N20" t="s">
+      <c r="N24" t="s">
         <v>37</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O24" t="s">
         <v>35</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P24" t="s">
         <v>37</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="Q24" t="s">
         <v>40</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R24" t="s">
         <v>41</v>
       </c>
-      <c r="S20" t="s">
+      <c r="S24" t="s">
         <v>43</v>
       </c>
-      <c r="T20" t="s">
+      <c r="T24" t="s">
         <v>40</v>
       </c>
-      <c r="U20" t="s">
+      <c r="U24" t="s">
         <v>45</v>
       </c>
-      <c r="V20" t="s">
+      <c r="V24" t="s">
         <v>46</v>
       </c>
-      <c r="W20" t="s">
+      <c r="W24" t="s">
         <v>35</v>
       </c>
-      <c r="X20" t="s">
+      <c r="X24" t="s">
         <v>36</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Y24" t="s">
         <v>36</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Z24" t="s">
         <v>43</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AA24" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" t="s">
+        <v>45</v>
+      </c>
+      <c r="I31" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" t="s">
+        <v>60</v>
+      </c>
+      <c r="K31" t="s">
+        <v>57</v>
+      </c>
+      <c r="L31" t="s">
+        <v>38</v>
+      </c>
+      <c r="M31" t="s">
+        <v>59</v>
+      </c>
+      <c r="N31" t="s">
+        <v>38</v>
+      </c>
+      <c r="O31" t="s">
+        <v>34</v>
+      </c>
+      <c r="P31" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>43</v>
+      </c>
+      <c r="R31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>55</v>
+      </c>
+      <c r="J32" t="s">
+        <v>46</v>
+      </c>
+      <c r="K32" t="s">
+        <v>46</v>
+      </c>
+      <c r="L32" t="s">
+        <v>43</v>
+      </c>
+      <c r="M32" t="s">
+        <v>46</v>
+      </c>
+      <c r="N32" t="s">
+        <v>40</v>
+      </c>
+      <c r="O32" t="s">
+        <v>33</v>
+      </c>
+      <c r="P32" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>47</v>
+      </c>
+      <c r="R32" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>